--- a/Backlogs/BacklogTemplate.xlsx
+++ b/Backlogs/BacklogTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444721CB-9B80-6949-B73E-55346FE9296D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB22E84-D0BB-4A4A-A1EA-1D4D01EFD7E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="460" windowWidth="16560" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28760" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Team name</t>
   </si>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">As a member and a life coach I should receive a confiramtion notifcation about the meeting </t>
   </si>
   <si>
-    <t>As a partner I should be able to choose categories and enter extra attributes for each category</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -242,6 +239,12 @@
   </si>
   <si>
     <t xml:space="preserve">As a user I should be able to edit my account </t>
+  </si>
+  <si>
+    <t>As a partner I should be able to enter extra attributes after I choose category</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to choose a category for my project</t>
   </si>
 </sst>
 </file>
@@ -583,14 +586,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>50801</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -650,14 +653,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>50801</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -717,14 +720,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>50799</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -784,13 +787,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -851,14 +854,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>482600</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>50799</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1236,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1346,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1357,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1365,494 +1368,503 @@
         <v>1.3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>1.4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="9"/>
+        <v>3.4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="9"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>6</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="9"/>
+        <v>5.3</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
-        <v>6.11</v>
+        <v>6.1</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
-        <v>7</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="9"/>
+        <v>6.17</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
         <v>7.7</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>64</v>
+      <c r="D57" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1906,13 +1918,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1950,13 +1962,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1972,13 +1984,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1994,13 +2006,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2016,13 +2028,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>482600</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
